--- a/Test-cases for the chatbot.xlsx
+++ b/Test-cases for the chatbot.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>ID 001</t>
   </si>
@@ -213,6 +213,18 @@
     </r>
   </si>
   <si>
+    <t>Верификация команд бота /cafes/help/about</t>
+  </si>
+  <si>
+    <t>Бот прислал сообщение из четырех кнопок и в каждой кнопке название одной кофейни</t>
+  </si>
+  <si>
+    <t>Бот прислал сообщение где описывает свою функциональность и предлогает выбрать одну из команд /cafes и /about.</t>
+  </si>
+  <si>
+    <t>Бот прислал сообщение о цели и содержании проекта.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Starus: </t>
     </r>
@@ -235,72 +247,8 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">                                                                                                                                                         Фактическтий результат: Меню открылось и соответствует заявленной спецификации пункт 2.1.1</t>
+      <t xml:space="preserve">                                                                                                                                                         </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Starus: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>PASSED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                         Фактическтий результат: Содержание и функциональность кнопок соответвует спецификации, пункты 2.2.1, 2.2.2, 2.2.3 </t>
-    </r>
-  </si>
-  <si>
-    <t>Верификация команд бота /cafes/help/about</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Starus: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>PASSED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                         Фактическтий результат: Бот отправил сообщение где есть случайный напиток с параметрами: название,объем и цена.  </t>
-    </r>
-  </si>
-  <si>
-    <t>Бот прислал сообщение из четырех кнопок и в каждой кнопке название одной кофейни</t>
-  </si>
-  <si>
-    <t>Бот прислал сообщение где описывает свою функциональность и предлогает выбрать одну из команд /cafes и /about.</t>
-  </si>
-  <si>
-    <t>Бот прислал сообщение о цели и содержании проекта.</t>
   </si>
 </sst>
 </file>
@@ -887,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,275 +871,251 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="25"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B26" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="19"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="25"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="B35" s="19"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="19"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="A35:B36"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
